--- a/Excel/excel/ShopGiftMenuConfig.xlsx
+++ b/Excel/excel/ShopGiftMenuConfig.xlsx
@@ -4,25 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="12975"/>
+    <workbookView windowWidth="25905" windowHeight="12975"/>
   </bookViews>
   <sheets>
     <sheet name="ShopGiftMenuConfig" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -32,6 +19,18 @@
     <author>Administrator</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>必须是ShopGift包内的</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="D5" authorId="0">
       <text>
         <r>
@@ -73,7 +72,7 @@
     <t>rType</t>
   </si>
   <si>
-    <t>urlPath</t>
+    <t>childViewName</t>
   </si>
   <si>
     <t>isShow</t>
@@ -94,7 +93,7 @@
     <t>索引id</t>
   </si>
   <si>
-    <t>子类型</t>
+    <t>页面名字</t>
   </si>
   <si>
     <t>显示否,1显示</t>
@@ -133,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -1117,7 +1116,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="4"/>
